--- a/BackTest/2020-01-11 BackTest FNB.xlsx
+++ b/BackTest/2020-01-11 BackTest FNB.xlsx
@@ -2726,13 +2726,17 @@
         <v>3.027733333333332</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.008</v>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
@@ -2761,14 +2765,22 @@
         <v>3.027699999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2808,22 @@
         <v>3.027666666666666</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -5596,20 +5616,14 @@
         <v>3.008766666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>3.01</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,20 +5651,14 @@
         <v>3.009133333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>3.028</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5685,11 +5693,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5724,11 +5728,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5763,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5802,11 +5798,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5841,11 +5833,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5880,11 +5868,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5919,11 +5903,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5958,11 +5938,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5997,11 +5973,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6036,11 +6008,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6075,11 +6043,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6114,11 +6078,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6153,11 +6113,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6192,11 +6148,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6231,11 +6183,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6218,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6309,11 +6253,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6288,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6387,11 +6323,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +6358,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6465,11 +6393,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +6428,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6463,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6582,11 +6498,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6621,11 +6533,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6568,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6699,11 +6603,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6738,11 +6638,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6777,11 +6673,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6816,11 +6708,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6855,11 +6743,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6894,11 +6778,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6929,15 +6809,11 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6972,11 +6848,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7011,11 +6883,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7046,16 +6914,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7083,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
@@ -7188,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7223,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -11105,13 +10971,17 @@
         <v>3.007516666666667</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="K302" t="n">
+        <v>2.989</v>
+      </c>
       <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
@@ -11140,14 +11010,22 @@
         <v>3.008016666666667</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="K303" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11181,8 +11059,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11735,14 +11619,20 @@
         <v>3.002416666666667</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>3.017</v>
+      </c>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11777,7 +11667,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11812,7 +11706,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +11745,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +11784,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11917,7 +11823,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11952,7 +11862,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11987,7 +11901,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12022,7 +11940,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12057,7 +11979,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12092,7 +12018,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12127,7 +12057,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12162,7 +12096,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12197,7 +12135,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12232,7 +12174,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +12213,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12252,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12337,7 +12291,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12372,7 +12330,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12407,7 +12369,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12442,7 +12408,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12477,7 +12447,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12512,7 +12486,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12547,7 +12525,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12582,7 +12564,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12617,7 +12603,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12652,7 +12642,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12687,7 +12681,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12722,7 +12720,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12757,7 +12759,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12792,7 +12798,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12827,7 +12837,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12862,7 +12876,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -12897,7 +12915,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12932,7 +12954,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +12993,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +13032,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +13071,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13072,7 +13110,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13107,7 +13149,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13142,7 +13188,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13177,7 +13227,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13212,7 +13266,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13247,7 +13305,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13282,7 +13344,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13317,7 +13383,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13352,7 +13422,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13387,7 +13461,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13422,7 +13500,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13539,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13492,7 +13578,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13527,7 +13617,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13562,7 +13656,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13597,7 +13695,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13632,7 +13734,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13667,7 +13773,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13702,7 +13812,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13737,7 +13851,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13772,7 +13890,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13807,7 +13929,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13842,7 +13968,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13877,7 +14007,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -13912,7 +14046,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +14085,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -13982,7 +14124,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +14163,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14052,7 +14202,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14087,7 +14241,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14122,7 +14280,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14157,7 +14319,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14192,7 +14358,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14227,7 +14397,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14262,7 +14436,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14297,7 +14475,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14332,7 +14514,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14367,7 +14553,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14402,7 +14592,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14437,7 +14631,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14472,7 +14670,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14507,7 +14709,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14542,7 +14748,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14577,7 +14787,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +14826,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14647,7 +14865,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14682,7 +14904,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14717,7 +14943,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14752,7 +14982,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14787,7 +15021,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14822,7 +15060,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14857,7 +15099,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14892,7 +15138,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14927,7 +15177,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14962,7 +15216,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14997,7 +15255,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15032,7 +15294,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +15333,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +15372,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15137,7 +15411,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15172,7 +15450,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15207,7 +15489,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15242,7 +15528,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15277,7 +15567,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15312,7 +15606,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15347,7 +15645,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15382,7 +15684,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15417,7 +15723,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15452,7 +15762,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15487,7 +15801,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15522,7 +15840,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15557,7 +15879,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15592,7 +15918,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15627,7 +15957,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15662,7 +15996,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15697,7 +16035,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15732,7 +16074,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16113,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15802,7 +16152,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15837,7 +16191,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15872,7 +16230,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15907,7 +16269,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15942,7 +16308,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15977,7 +16347,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16012,7 +16386,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16047,7 +16425,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16082,7 +16464,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16117,7 +16503,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16152,7 +16542,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16581,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16222,7 +16620,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +16659,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16292,7 +16698,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16327,7 +16737,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16362,7 +16776,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16397,7 +16815,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16432,7 +16854,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16467,7 +16893,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16502,7 +16932,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16537,7 +16971,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16572,7 +17010,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16607,7 +17049,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16642,7 +17088,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16677,7 +17127,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16712,7 +17166,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16747,7 +17205,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16782,7 +17244,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16817,7 +17283,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16852,7 +17322,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16887,7 +17361,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17400,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16957,7 +17439,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -16992,7 +17478,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17027,7 +17517,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17062,7 +17556,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17097,7 +17595,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17125,18 +17627,16 @@
         <v>2.993399999999998</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>2.98</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M474" t="n">
@@ -17166,14 +17666,12 @@
         <v>2.992149999999998</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>2.95</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
@@ -17207,14 +17705,12 @@
         <v>2.992399999999998</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>2.936</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
@@ -17248,14 +17744,12 @@
         <v>2.992549999999997</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>2.97</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
@@ -17289,14 +17783,12 @@
         <v>2.992116666666664</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>2.98</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
@@ -17330,14 +17822,12 @@
         <v>2.991449999999998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>2.98</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
@@ -17371,14 +17861,12 @@
         <v>2.991183333333331</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
@@ -17412,14 +17900,12 @@
         <v>2.990749999999998</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>2.987</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
@@ -17453,14 +17939,12 @@
         <v>2.990433333333331</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>2.977</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
@@ -17494,14 +17978,12 @@
         <v>2.990116666666665</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>2.988</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
@@ -17535,14 +18017,12 @@
         <v>2.990249999999998</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
@@ -17576,14 +18056,12 @@
         <v>2.990033333333332</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>2.987</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
@@ -17617,14 +18095,12 @@
         <v>2.989683333333332</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>2.982</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
@@ -17658,14 +18134,12 @@
         <v>2.988966666666665</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>2.958</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
@@ -17699,14 +18173,12 @@
         <v>2.988566666666665</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>2.958</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
@@ -17740,14 +18212,12 @@
         <v>2.988683333333332</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>2.976</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
@@ -17781,14 +18251,12 @@
         <v>2.988183333333332</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>2.987</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
@@ -17822,14 +18290,12 @@
         <v>2.987849999999999</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>2.98</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
@@ -17863,14 +18329,12 @@
         <v>2.987499999999998</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>2.979</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
@@ -17904,14 +18368,12 @@
         <v>2.987283333333332</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>2.979</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
@@ -17945,14 +18407,12 @@
         <v>2.987066666666665</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>2.987</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
@@ -17986,14 +18446,12 @@
         <v>2.986733333333332</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>2.998</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
@@ -18027,14 +18485,12 @@
         <v>2.986566666666665</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>2.98</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
@@ -18068,14 +18524,12 @@
         <v>2.986399999999998</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>

--- a/BackTest/2020-01-11 BackTest FNB.xlsx
+++ b/BackTest/2020-01-11 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2806321.878576814</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2758818.990976814</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2758818.990976814</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2758928.663876814</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2705276.439376814</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2705626.439376814</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2923559.359976814</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2722054.749776814</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3019547.846076814</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3427980.229176814</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5266484.974576814</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3338709.835176814</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3012940.584276814</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-3038835.066676815</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3038835.066676815</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-3033835.066676815</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-3033835.066676815</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-3849750.055876815</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-3849750.055876815</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-3849750.055876815</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3849580.055876815</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3849400.055876815</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3849220.055876815</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-3815984.723876815</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3843934.070876815</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-6064689.680276816</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-6064689.680276816</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-6568068.128276816</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5436550.607076815</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5437438.607076815</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-7689401.013976815</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-7689734.013976815</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-7939683.364076816</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-7939513.364076816</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-8960281.100876814</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-8264342.546976813</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-8739573.597976813</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-8893746.523376813</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-13045811.4356124</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-13146250.2762124</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-8069947.816007758</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-8405913.937207758</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-8349081.809907759</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-7786380.086607759</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-7380061.026507759</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-7172939.597107759</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-7213611.353607759</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-7213833.353607759</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-10166799.27700776</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-10349596.84280776</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-10726129.93910776</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-4750756.059207759</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3382759.003807758</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3382359.003807758</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3374656.766007759</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3554992.223807759</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3852140.541707759</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-6193556.053707758</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-9514531.060444361</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-11094375.60634436</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-11345294.59664436</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-20653328.18949971</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-20653498.18949971</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -17743,17 +17743,11 @@
         <v>-25302944.78609972</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17786,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17819,17 +17809,11 @@
         <v>-25303211.78609972</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17858,17 +17842,11 @@
         <v>-25489260.71439972</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>2.991</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17897,17 +17875,11 @@
         <v>-25489038.71439972</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>2.951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17936,17 +17908,11 @@
         <v>-25489038.71439972</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17975,17 +17941,11 @@
         <v>-25489038.71439972</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18014,17 +17974,11 @@
         <v>-27438916.87579972</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18053,17 +18007,11 @@
         <v>-28234675.55999972</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>2.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18100,7 +18048,7 @@
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L535" t="n">
@@ -18209,11 +18157,9 @@
         <v>-28557113.51559972</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -18248,11 +18194,9 @@
         <v>-28556945.51559972</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>2.966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -18287,11 +18231,9 @@
         <v>-28752248.37609972</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -18326,11 +18268,9 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -18365,11 +18305,9 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -18404,11 +18342,9 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -18443,11 +18379,9 @@
         <v>-28244366.15179972</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>2.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -18482,11 +18416,9 @@
         <v>-28290570.55129972</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>2.987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -18521,11 +18453,9 @@
         <v>-28302670.51219972</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>2.979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -18560,11 +18490,9 @@
         <v>-28300948.51219972</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>2.957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -18599,11 +18527,9 @@
         <v>-27622009.41209972</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>2.976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -18638,11 +18564,9 @@
         <v>-27631698.94049972</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>2.987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -18677,11 +18601,9 @@
         <v>-27631476.94049972</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>2.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -18716,11 +18638,9 @@
         <v>-27681079.76099972</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>2.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -18755,11 +18675,9 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>2.979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -18794,11 +18712,9 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>2.987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -18833,11 +18749,9 @@
         <v>-27476306.13039973</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>2.987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19294,6 +19208,6 @@
       <c r="M566" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest FNB.xlsx
+++ b/BackTest/2020-01-11 BackTest FNB.xlsx
@@ -517,7 +517,7 @@
         <v>-2758818.990976814</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2758928.663876814</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2705626.439376814</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2923559.359976814</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2737954.501976814</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2722054.749776814</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2904132.984076814</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-3019547.846076814</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-3021947.846076814</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-3427980.229176814</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5266484.974576814</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-6437882.607076815</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-5436550.607076815</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-5437438.607076815</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-5437660.607076815</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-5438104.607076815</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-5437941.607076815</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-5458829.607076815</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-8264342.546976813</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-8739573.597976813</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-8893746.523376813</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-13045811.4356124</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-13146250.2762124</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-8069947.816007758</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-8405913.937207758</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-8349081.809907759</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-7786380.086607759</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-7380061.026507759</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-7172273.597107759</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-7172939.597107759</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-7213611.353607759</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-7213833.353607759</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-10166799.27700776</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-10349596.84280776</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-10726129.93910776</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-4750756.059207759</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-3382759.003807758</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-3382359.003807758</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-3374656.766007759</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-3554992.223807759</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-3852140.541707759</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-6193556.053707758</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-6208056.105407758</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-7708056.105407758</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-7556152.576907758</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-9514531.060444361</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-11094375.60634436</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-11345294.59664436</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-20653328.18949971</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-20653498.18949971</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -18040,132 +18040,128 @@
         <v>-28234058.19689972</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>2.936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="D536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F536" t="n">
+        <v>255074.8247</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-28234058.19689972</v>
+      </c>
+      <c r="H536" t="n">
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J536" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C537" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D537" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F537" t="n">
+        <v>420.7932</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-28233637.40369972</v>
+      </c>
+      <c r="H537" t="n">
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J537" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="C538" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="D538" t="n">
+        <v>2.996</v>
+      </c>
+      <c r="E538" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="F538" t="n">
+        <v>323476.1119</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-28557113.51559972</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K538" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="C536" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="D536" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="E536" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F536" t="n">
-        <v>255074.8247</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-28234058.19689972</v>
-      </c>
-      <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C537" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D537" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="E537" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="F537" t="n">
-        <v>420.7932</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-28233637.40369972</v>
-      </c>
-      <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="C538" t="n">
-        <v>2.966</v>
-      </c>
-      <c r="D538" t="n">
-        <v>2.996</v>
-      </c>
-      <c r="E538" t="n">
-        <v>2.966</v>
-      </c>
-      <c r="F538" t="n">
-        <v>323476.1119</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-28557113.51559972</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18194,10 +18190,14 @@
         <v>-28556945.51559972</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="J539" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18231,10 +18231,14 @@
         <v>-28752248.37609972</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J540" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18268,10 +18272,14 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J541" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,10 +18313,14 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J542" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,10 +18354,14 @@
         <v>-28243700.15179972</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J543" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18379,10 +18395,14 @@
         <v>-28244366.15179972</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J544" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18416,10 +18436,14 @@
         <v>-28290570.55129972</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="J545" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18453,10 +18477,14 @@
         <v>-28302670.51219972</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="J546" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18490,10 +18518,14 @@
         <v>-28300948.51219972</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J547" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18527,10 +18559,14 @@
         <v>-27622009.41209972</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="J548" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18564,10 +18600,14 @@
         <v>-27631698.94049972</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="J549" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18601,10 +18641,14 @@
         <v>-27631476.94049972</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J550" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18638,10 +18682,14 @@
         <v>-27681079.76099972</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J551" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18675,10 +18723,14 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="J552" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18712,10 +18764,14 @@
         <v>-27447259.17019973</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="J553" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18749,10 +18805,14 @@
         <v>-27476306.13039973</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="J554" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18786,10 +18846,14 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J555" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18823,10 +18887,14 @@
         <v>-27061185.76779973</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J556" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18860,10 +18928,14 @@
         <v>-26976703.70319973</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J557" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18897,10 +18969,14 @@
         <v>-26976703.70319973</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J558" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18934,10 +19010,14 @@
         <v>-26977324.70319973</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J559" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18971,10 +19051,14 @@
         <v>-26977723.70319973</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>3.007</v>
+      </c>
+      <c r="J560" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19008,10 +19092,14 @@
         <v>-26977556.70319973</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>3.006</v>
+      </c>
+      <c r="J561" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19045,10 +19133,14 @@
         <v>-26965356.70319973</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="J562" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19082,10 +19174,14 @@
         <v>-26965179.70319973</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="J563" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19119,10 +19215,14 @@
         <v>-26965356.70319973</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>3.018</v>
+      </c>
+      <c r="J564" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,10 +19256,14 @@
         <v>-26995755.70319973</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>3.014</v>
+      </c>
+      <c r="J565" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19193,10 +19297,14 @@
         <v>-26995578.70319973</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="J566" t="n">
+        <v>2.97</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
